--- a/SeleniumProject/src/test/java/Data/DP_Data.xlsx
+++ b/SeleniumProject/src/test/java/Data/DP_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="3000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="1425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Pa-05769-100</t>
-  </si>
-  <si>
     <t>testid60</t>
   </si>
   <si>
     <t>dp_Login</t>
+  </si>
+  <si>
+    <t>Pa-05769-101</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,13 +381,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
